--- a/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C521B50-6B13-46F5-B62E-DCFD469C3BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F22AA-1DC1-4B01-86E8-99EE756CE2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28605" yWindow="3270" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C21AA55C-E796-4F8A-9202-23D9572ABF70}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FDC46289-A1DC-4939-B0BB-8C8D9AB5260C}">
       <text>
         <r>
           <rPr>
@@ -38,21 +38,130 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>0.战斗开始时
-1.攻击时时
-2.击中对手
-3.攻击未命中时
-4.对手未命中时
-5.对手眩晕时
-6.对手攻击命中时(近战)
-7.每场战斗触发一次
-8.狂战士之怒期间
-9.星的t物品激活n次
-10.每次获得n层b时
-11.每n秒
-12.每有一层增益效果
-13.生命值低于%时
-14,%几率</t>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.自身物品 
+2.玩家自己
+3.对手玩家
+4.星物品
+5.方块物品
+6.本场游戏 
+7.包内物品
+8.对手武器
+9.对手近战武器
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0CAFA225-C614-4D1D-8F41-9BFBC83B58F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.攻击时 
+2.未命中时 
+3.命中时 
+4.激活时 
+5.获得n层b时 
+6.生命值低于n时 
+7.拥有n层b时 
+8.战斗开始 
+9.战斗触发n次 
+10.每n秒 
+11.进入xx状态
+12.进入商店
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EF620122-A4D7-4C94-BAA6-ECC7EE105EB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:
+根据前一个监听类型来设置不同的值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类型 1 2 3 4 
+1.概率
+类型5
+[3,1] 三层 充能 [0,1] n 层充能
+类型6
+1.百分比 50
+类型7 
+[3,1] 同类型5 
+类型8
+gameState
+类型9
+n 次数
+类型10 
+n 秒
+类型11
+状态Id
+类型12
+概率
+admin:
+buffID
+1.充能
+2.狂热
+3.幸运
+4.魔法
+5.回复
+6.尖刺
+7.吸血
+8.致盲
+9.冰冷
+10.中毒
+11.护盾
+12.治疗
+13.疲惫
+14.无敌
+15.无效 : 放置获得增益
+16.反弹
+17.复活
+19.抵挡:放置获得减益
+20.眩晕:暂停所有物品冷却时间</t>
         </r>
       </text>
     </comment>
@@ -61,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>编号</t>
   </si>
@@ -81,14 +190,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -101,107 +202,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>战斗开始时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击时时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中对手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击未命中时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对手未命中时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对手眩晕时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对手攻击命中时(近战)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂战士之怒期间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次获得n层b时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值低于%时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>%几率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每场战斗触发一次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>星的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物品激活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每n秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每有一层增益效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>监听对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int32]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身道具击中对手时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身玩家每拥有一层尖刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手攻击落空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到对手攻击时(近战)35%几率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身道具击中对手时35%几率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -267,14 +332,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -369,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,12 +466,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,14 +481,23 @@
     <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -440,16 +509,6 @@
       <fill>
         <patternFill patternType="darkGray">
           <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -773,339 +832,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="3" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>100</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>35</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5">
-      <c r="A14" s="8">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8">
-        <v>14</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>100</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="37" spans="2:4" ht="16.5">
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38" spans="2:4" ht="16.5">
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="13"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="2:6" ht="16.5">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="2:6" ht="16.5">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D4">
+  <conditionalFormatting sqref="F1 F4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,D1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,F1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="F2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,D2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
@@ -1,41 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F22AA-1DC1-4B01-86E8-99EE756CE2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28605" yWindow="3270" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FDC46289-A1DC-4939-B0BB-8C8D9AB5260C}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -43,9 +48,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -62,15 +65,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0CAFA225-C614-4D1D-8F41-9BFBC83B58F9}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -78,9 +79,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -96,19 +95,18 @@
 10.每n秒 
 11.进入xx状态
 12.进入商店
+13.每拥有一层b
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EF620122-A4D7-4C94-BAA6-ECC7EE105EB3}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:
@@ -117,9 +115,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -170,11 +166,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>监听对象</t>
+  </si>
+  <si>
+    <t>监听类型</t>
+  </si>
+  <si>
+    <t>监听数值</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -187,94 +195,62 @@
     <t>int16</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>[int32]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听数值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int32]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>listenTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>listenType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>listenValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自身道具击中对手时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自身玩家每拥有一层尖刺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始</t>
   </si>
   <si>
     <t>每5s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对手攻击落空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>受到对手攻击时(近战)35%几率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自身道具击中对手时35%几率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,57 +270,186 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,8 +510,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -429,9 +720,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -445,59 +978,117 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -512,34 +1103,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -826,19 +1394,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.25" style="1" customWidth="1"/>
@@ -850,297 +1418,297 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D6" s="15">
+        <v>13</v>
+      </c>
+      <c r="E6" s="16">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="16">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>100</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>35</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="B11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="D11" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E11" s="16">
         <v>100</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9">
-        <v>100</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>35</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9">
-        <v>100</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="2:6">
       <c r="B24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:6">
       <c r="B25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="2:6">
       <c r="B26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="2:6">
       <c r="B27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="2:6">
       <c r="B28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="2:6">
       <c r="B29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:6">
       <c r="B30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:6">
       <c r="B31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="2:6">
       <c r="B32"/>
       <c r="F32"/>
     </row>
@@ -1152,72 +1720,78 @@
       <c r="B34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="2:6" ht="16.5">
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" spans="2:6" ht="16.5">
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="11"/>
+    <row r="35" spans="2:2">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:2">
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:2">
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIF($A:$A,F2)&gt;1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F4">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>COUNTIF($A:$A,F1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,F2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7BD85-01F9-4DAC-87C1-C33E4E3D31F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,35 +18,23 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -49,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +60,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -80,6 +76,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -100,13 +97,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:
@@ -116,6 +114,70 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类型 1 2 3 4 
+1.概率
+类型5
+[3,1] 三层 充能 [0,1] n 层充能
+类型6
+1.百分比 50
+类型7 
+[3,1] 同类型5 
+类型8
+gameState
+类型9
+n 次数
+类型10 
+n 秒
+类型11
+状态Id
+类型12
+概率
+admin:
+buffID
+1.充能
+2.狂热
+3.幸运
+4.魔法
+5.回复
+6.尖刺
+7.吸血
+8.致盲
+9.冰冷
+10.中毒
+11.护盾
+12.治疗
+13.疲惫
+14.无敌
+15.无效 : 放置获得增益
+16.反弹
+17.复活
+19.抵挡:放置获得减益
+20.眩晕:暂停所有物品冷却时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{94A4BC90-F064-4768-A34D-81D7FCC69CB1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:
+根据前一个监听类型来设置不同的值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -166,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>编号</t>
   </si>
@@ -225,32 +287,37 @@
     <t>自身玩家每拥有一层尖刺</t>
   </si>
   <si>
+    <t>每5s</t>
+  </si>
+  <si>
+    <t>受到对手攻击时(近战)35%几率</t>
+  </si>
+  <si>
     <t>战斗开始</t>
-  </si>
-  <si>
-    <t>每5s</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对手攻击落空</t>
-  </si>
-  <si>
-    <t>受到对手攻击时(近战)35%几率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>自身道具击中对手时35%几率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,29 +328,34 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -294,162 +366,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,7 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,194 +447,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -720,251 +471,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,68 +536,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1103,11 +554,34 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1394,27 +868,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.25" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="3" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1430,11 +904,14 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1450,11 +927,14 @@
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1470,9 +950,12 @@
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -1488,9 +971,12 @@
       <c r="E4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -1506,9 +992,12 @@
       <c r="E5" s="16">
         <v>100</v>
       </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="16">
+        <v>100</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -1524,14 +1013,17 @@
       <c r="E6" s="16">
         <v>6</v>
       </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="16">
+        <v>100</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="15">
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="15">
         <v>6</v>
@@ -1542,14 +1034,17 @@
       <c r="E7" s="15">
         <v>0</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="16">
+        <v>100</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="15">
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="15">
         <v>6</v>
@@ -1560,14 +1055,17 @@
       <c r="E8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="16">
+        <v>100</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="15">
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="16">
         <v>8</v>
@@ -1578,14 +1076,17 @@
       <c r="E9" s="16">
         <v>100</v>
       </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="16">
+        <v>100</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="15">
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="16">
         <v>9</v>
@@ -1596,9 +1097,12 @@
       <c r="E10" s="16">
         <v>35</v>
       </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="16">
+        <v>35</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -1614,184 +1118,188 @@
       <c r="E11" s="16">
         <v>100</v>
       </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="16">
+        <v>35</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G18" s="15"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="B23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="B24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="B25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="B26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="B29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="B31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="B32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="17"/>
     </row>
-    <row r="36" ht="16.5" spans="2:2">
+    <row r="36" spans="2:7" ht="16.5">
       <c r="B36" s="18"/>
     </row>
-    <row r="37" ht="16.5" spans="2:2">
+    <row r="37" spans="2:7" ht="16.5">
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:7">
       <c r="B38" s="17"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:7">
       <c r="B39" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF($A:$A,F2)&gt;1</formula>
+  <conditionalFormatting sqref="G1 G4">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>COUNTIF($A:$A,G1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,F1)&gt;1</formula>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF($A:$A,G2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7BD85-01F9-4DAC-87C1-C33E4E3D31F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFF4984-D876-46A1-8D49-AF6F27E29A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="780" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,75 +160,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{94A4BC90-F064-4768-A34D-81D7FCC69CB1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:
-根据前一个监听类型来设置不同的值</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-类型 1 2 3 4 
-1.概率
-类型5
-[3,1] 三层 充能 [0,1] n 层充能
-类型6
-1.百分比 50
-类型7 
-[3,1] 同类型5 
-类型8
-gameState
-类型9
-n 次数
-类型10 
-n 秒
-类型11
-状态Id
-类型12
-概率
-admin:
-buffID
-1.充能
-2.狂热
-3.幸运
-4.魔法
-5.回复
-6.尖刺
-7.吸血
-8.致盲
-9.冰冷
-10.中毒
-11.护盾
-12.治疗
-13.疲惫
-14.无敌
-15.无效 : 放置获得增益
-16.反弹
-17.复活
-19.抵挡:放置获得减益
-20.眩晕:暂停所有物品冷却时间</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>编号</t>
   </si>
@@ -302,14 +239,6 @@
   </si>
   <si>
     <t>自身道具击中对手时35%几率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -874,21 +803,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.25" style="1" customWidth="1"/>
-    <col min="3" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="3" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -904,14 +833,11 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -927,14 +853,11 @@
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -950,12 +873,9 @@
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -971,12 +891,9 @@
       <c r="E4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -992,12 +909,9 @@
       <c r="E5" s="16">
         <v>100</v>
       </c>
-      <c r="F5" s="16">
-        <v>100</v>
-      </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -1013,12 +927,9 @@
       <c r="E6" s="16">
         <v>6</v>
       </c>
-      <c r="F6" s="16">
-        <v>100</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -1034,12 +945,9 @@
       <c r="E7" s="15">
         <v>0</v>
       </c>
-      <c r="F7" s="16">
-        <v>100</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -1055,12 +963,9 @@
       <c r="E8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="16">
-        <v>100</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -1076,12 +981,9 @@
       <c r="E9" s="16">
         <v>100</v>
       </c>
-      <c r="F9" s="16">
-        <v>100</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -1097,12 +999,9 @@
       <c r="E10" s="16">
         <v>35</v>
       </c>
-      <c r="F10" s="16">
-        <v>35</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -1118,135 +1017,125 @@
       <c r="E11" s="16">
         <v>100</v>
       </c>
-      <c r="F11" s="16">
-        <v>35</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="B23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="B27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="B28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="B29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="B30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="17"/>
     </row>
-    <row r="36" spans="2:7" ht="16.5">
+    <row r="36" spans="2:6" ht="16.5">
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="2:7" ht="16.5">
+    <row r="37" spans="2:6" ht="16.5">
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:6">
       <c r="B38" s="17"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:6">
       <c r="B39" s="17"/>
     </row>
   </sheetData>
@@ -1254,19 +1143,19 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G4">
+  <conditionalFormatting sqref="F1 F4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,G1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,F1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="F2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,G2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFF4984-D876-46A1-8D49-AF6F27E29A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00890C5-C130-47C2-95AF-ED1280DB5A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="780" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="24270" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,8 +81,8 @@
           </rPr>
           <t xml:space="preserve">
 1.攻击时 
-2.未命中时 
-3.命中时 
+2.攻击未命中时 
+3.攻击命中时 
 4.激活时 
 5.获得n层b时 
 6.生命值低于n时 
@@ -93,6 +93,7 @@
 11.进入xx状态
 12.进入商店
 13.每拥有一层b
+14.攻击造成伤害后
 </t>
         </r>
       </text>
@@ -221,13 +222,7 @@
     <t>自身道具击中对手时</t>
   </si>
   <si>
-    <t>自身玩家每拥有一层尖刺</t>
-  </si>
-  <si>
     <t>每5s</t>
-  </si>
-  <si>
-    <t>受到对手攻击时(近战)35%几率</t>
   </si>
   <si>
     <t>战斗开始</t>
@@ -239,6 +234,14 @@
   </si>
   <si>
     <t>自身道具击中对手时35%几率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身玩家每拥有一层尖刺</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到对手攻击时(近战)35%几率</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +809,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -916,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="15">
         <v>2</v>
@@ -934,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="15">
         <v>6</v>
@@ -952,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="15">
         <v>6</v>
@@ -970,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="16">
         <v>8</v>
@@ -988,13 +991,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="16">
         <v>9</v>
       </c>
       <c r="D10" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="16">
         <v>35</v>
@@ -1006,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>

--- a/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableTiming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00890C5-C130-47C2-95AF-ED1280DB5A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAB4C93-4EEE-478A-8757-275549305A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="24270" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="16">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F11" s="16"/>
     </row>
